--- a/Appliance-Pricing-10-1-18.xlsx
+++ b/Appliance-Pricing-10-1-18.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t xml:space="preserve">CATEGORY</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 6.5 CU FT, AUTO DRY, REVERSIBLE SIDE SWING DOOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSP2971HQ</t>
   </si>
   <si>
     <t xml:space="preserve">NGD4655EW</t>
@@ -258,7 +261,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -269,6 +272,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -288,13 +295,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V23" activeCellId="0" sqref="V23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.6"/>
   </cols>
@@ -420,9 +427,9 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>22</v>
@@ -476,9 +483,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>22</v>
@@ -532,121 +539,79 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>489</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>489</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>699</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>699</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>22.491</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>124</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>883049348599</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>30.67</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" s="0" t="n">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>428</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>549</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>549</v>
+        <v>489</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>649</v>
+        <v>699</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>649</v>
+        <v>699</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>20.844</v>
+        <v>22.491</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>883049408354</v>
+        <v>883049348599</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>46</v>
+        <v>43.5</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>27</v>
+        <v>29.13</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30.67</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>22</v>
@@ -655,10 +620,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>428</v>
@@ -679,36 +644,30 @@
         <v>649</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>22.491</v>
+        <v>20.844</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>883049410401</v>
+        <v>883049408354</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>43.5</v>
+        <v>46</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>29.13</v>
+        <v>27</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>30.67</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>22</v>
@@ -717,28 +676,28 @@
         <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>508</v>
+        <v>428</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>508</v>
+        <v>428</v>
       </c>
       <c r="I8" s="0" t="n">
+        <v>549</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>549</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>649</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>649</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>749</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>749</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>22.491</v>
@@ -747,7 +706,7 @@
         <v>124</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>883049410425</v>
+        <v>883049410401</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>43.5</v>
@@ -759,18 +718,18 @@
         <v>30.67</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>22</v>
@@ -779,60 +738,60 @@
         <v>23</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>566</v>
+        <v>508</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>566</v>
+        <v>508</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>699</v>
+        <v>649</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>699</v>
+        <v>649</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>21.124</v>
+        <v>22.491</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>883049392240</v>
+        <v>883049410425</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>43.5</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>27.36</v>
+        <v>29.13</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>30.67</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>22</v>
@@ -841,37 +800,37 @@
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>646</v>
+        <v>566</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>646</v>
+        <v>566</v>
       </c>
       <c r="I10" s="0" t="n">
+        <v>699</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>699</v>
+      </c>
+      <c r="L10" s="0" t="n">
         <v>799</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>799</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>899</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>899</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>21.124</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>883049392257</v>
+        <v>883049392240</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>43.5</v>
@@ -883,12 +842,74 @@
         <v>30.67</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="F11" s="0" t="n">
+        <v>646</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>646</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>799</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>799</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>899</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>899</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>21.124</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>883049392257</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>30.67</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="0" t="n">
         <v>719</v>
       </c>
     </row>
